--- a/Ex6-3-integer.xlsx
+++ b/Ex6-3-integer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oboem\Documents\GitHub\CEE-5410-Walker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9AEE080-BDD1-4758-869D-4E2E2B5B71A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4982494C-C6F6-4FDD-BDD9-6D057399C3F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2046" yWindow="258" windowWidth="17340" windowHeight="12102" xr2:uid="{240761A2-DFF2-4573-9FBB-6E53395C2FEF}"/>
+    <workbookView xWindow="2046" yWindow="258" windowWidth="17340" windowHeight="12102" xr2:uid="{03B1E538-CFCE-48F5-B491-130100DA8ABA}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of Contents" sheetId="14" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <sheet name="X" sheetId="1" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">CapCost!$A$3:$B$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">CapCost!$A$3:$B$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">I!$A$3:$E$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">IntLowBound!$A$3:$E$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">IntUpBnd!$A$3:$B$5</definedName>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="61">
   <si>
     <t>X</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>binary decision to build or do prject from source src (1=yes 0=no)</t>
+  </si>
+  <si>
+    <t>EPS</t>
   </si>
   <si>
     <t>CapCost</t>
@@ -603,7 +606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7012756-079C-4279-9FAE-EBF882FDA5A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64F66923-3FC7-4095-A44A-F46E55313D0F}">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -612,44 +615,44 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -658,7 +661,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -666,7 +669,7 @@
         <v>34</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -680,10 +683,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -692,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -700,7 +703,7 @@
         <v>32</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -717,7 +720,7 @@
         <v>30</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -734,7 +737,7 @@
         <v>28</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -751,7 +754,7 @@
         <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -768,7 +771,7 @@
         <v>24</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -782,10 +785,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -794,7 +797,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -802,7 +805,7 @@
         <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -819,7 +822,7 @@
         <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -836,7 +839,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -853,7 +856,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -867,10 +870,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -879,15 +882,15 @@
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -896,7 +899,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -904,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -918,29 +921,29 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" location="CapCost!A1" display="CapCost" xr:uid="{D93B3536-0230-4725-8422-BE41AA7824DD}"/>
-    <hyperlink ref="A3" location="Scalar!A1" display="COST" xr:uid="{35269CF2-CE51-44EB-A545-91C621EF29EE}"/>
-    <hyperlink ref="A4" location="I!A1" display="I" xr:uid="{C19E479D-3677-4545-A0EA-ED56351FE1E0}"/>
-    <hyperlink ref="A6" location="IntLowBound!A1" display="IntLowBound" xr:uid="{09951642-C354-4883-89EF-4D8E99739458}"/>
-    <hyperlink ref="A7" location="IntUpBnd!A1" display="IntUpBnd" xr:uid="{0422F26F-D48B-4DF7-9251-9191FE72B468}"/>
-    <hyperlink ref="A8" location="IntUpBound!A1" display="IntUpBound" xr:uid="{0E2EC5D0-0E44-4A6D-9089-722CB1861FD8}"/>
-    <hyperlink ref="A9" location="MaxCap!A1" display="MaxCap" xr:uid="{D38C23B3-EF08-44BC-89CB-3E30DD4A417C}"/>
-    <hyperlink ref="A10" location="MaxCapacity!A1" display="MaxCapacity" xr:uid="{0A47BAA5-6562-4B4A-A74C-5B913D7D3600}"/>
-    <hyperlink ref="A11" location="Scalar!A1" display="MeetDemand" xr:uid="{23E7CD95-ECA9-41B9-9CEF-40240CFF0F4D}"/>
-    <hyperlink ref="A12" location="MinReqUse!A1" display="MinReqUse" xr:uid="{FE5D40BD-27DD-4E04-8FCF-A001196AEC37}"/>
-    <hyperlink ref="A13" location="MinUse!A1" display="MinUse" xr:uid="{4756BBED-A559-48C7-88AF-D6B3983576C1}"/>
-    <hyperlink ref="A14" location="OpCost!A1" display="OpCost" xr:uid="{3121C418-5E9A-426B-AB8C-34198975D596}"/>
-    <hyperlink ref="A15" location="src!A1" display="src" xr:uid="{F24FEE51-12EA-4104-BACD-7B9E7D0F35CB}"/>
-    <hyperlink ref="A16" location="Scalar!A1" display="TCOST" xr:uid="{8CD936A9-D745-408B-8A97-FA8170A94F94}"/>
-    <hyperlink ref="A17" location="Scalar!A1" display="TotDemand" xr:uid="{DA9D79B3-9648-453B-8E2D-79F679AFD420}"/>
-    <hyperlink ref="A18" location="X!A1" display="X" xr:uid="{046694B3-2352-4ADA-82A0-A1380D939B5D}"/>
+    <hyperlink ref="A2" location="CapCost!A1" display="CapCost" xr:uid="{B851423F-178A-4B4F-B309-339A73144025}"/>
+    <hyperlink ref="A3" location="Scalar!A1" display="COST" xr:uid="{D1597EE6-DDE6-4C0E-A4D2-AE795231B9AE}"/>
+    <hyperlink ref="A4" location="I!A1" display="I" xr:uid="{79461E5C-5AE8-4616-BC90-9B1A45DD399F}"/>
+    <hyperlink ref="A6" location="IntLowBound!A1" display="IntLowBound" xr:uid="{1A566637-FF6A-4712-9F33-366A7AFC86EC}"/>
+    <hyperlink ref="A7" location="IntUpBnd!A1" display="IntUpBnd" xr:uid="{C77FCDCA-AF70-4F49-8A04-63CCC5AE28EA}"/>
+    <hyperlink ref="A8" location="IntUpBound!A1" display="IntUpBound" xr:uid="{C9048AC0-6DD8-489B-B569-A9E8FB99AFC0}"/>
+    <hyperlink ref="A9" location="MaxCap!A1" display="MaxCap" xr:uid="{DB978508-4942-43D9-9BC7-EF94B7B6E50F}"/>
+    <hyperlink ref="A10" location="MaxCapacity!A1" display="MaxCapacity" xr:uid="{AD1DAE7D-EEF3-4526-81F3-B14A4D296F22}"/>
+    <hyperlink ref="A11" location="Scalar!A1" display="MeetDemand" xr:uid="{6ECA434C-F63B-4151-9FB8-9F88FB46E3D1}"/>
+    <hyperlink ref="A12" location="MinReqUse!A1" display="MinReqUse" xr:uid="{2CDF113A-00AA-4CDA-A686-AC9A32D532F7}"/>
+    <hyperlink ref="A13" location="MinUse!A1" display="MinUse" xr:uid="{4FDDBE3B-9E83-474E-8BD9-8EACC6A473CF}"/>
+    <hyperlink ref="A14" location="OpCost!A1" display="OpCost" xr:uid="{FD75621E-22C3-47B8-8561-C060C758F6FA}"/>
+    <hyperlink ref="A15" location="src!A1" display="src" xr:uid="{212ABC79-8DB6-4E97-A8AF-0CF02F8747D4}"/>
+    <hyperlink ref="A16" location="Scalar!A1" display="TCOST" xr:uid="{B67E82B4-909A-472D-9871-471240BBC18A}"/>
+    <hyperlink ref="A17" location="Scalar!A1" display="TotDemand" xr:uid="{D5013743-345C-4172-A816-8ACEF6E76AB9}"/>
+    <hyperlink ref="A18" location="X!A1" display="X" xr:uid="{B0974A48-1776-4958-B501-776AD0240C43}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4932C253-8391-4EC3-A6D6-D39FA7705D3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B78A04-A3A4-4607-891E-8E0ACB6C9BD2}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -991,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -1008,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1000.0000000000002</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -1018,16 +1021,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E5" xr:uid="{71041C80-546E-4727-84B3-0F84EBAFD9BB}"/>
+  <autoFilter ref="A3:E5" xr:uid="{E534DD9A-6746-41FD-BA8A-794537CF28E2}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{B98FDA6A-518C-4B78-8824-F905B0C79956}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{D235889B-20D0-4766-B436-153D35E97E37}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F48147-CD2B-4EB9-BE2A-86C55947A8CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9BB2A4F-B829-41AE-997E-D6AC6A9374E3}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1070,16 +1073,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B4" xr:uid="{CFEE3924-5285-494F-8FBB-6B9D4AB0F765}"/>
+  <autoFilter ref="A3:B4" xr:uid="{4F739564-3417-4EA1-BBA5-C3C5AFFF87CA}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{24DB2459-84B6-460B-B17A-1598FFB650C0}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{B5C8BAF3-BD64-491F-92BB-4A87C8E55CC3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEA9BBA2-72C1-4091-895B-1DE7C8802196}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D17FD98-5DBB-4DC2-9026-286950D5E8EC}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1130,16 +1133,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B5" xr:uid="{D6BEB5D9-A379-4D19-9726-763349060573}"/>
+  <autoFilter ref="A3:B5" xr:uid="{EDFD10A3-53EC-4D68-AF09-23E7F9099A0D}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{872EF1C9-EFF2-43F7-A724-40221FBF6E35}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{9B29A592-9760-4A83-9989-FE717E19D5EC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC4FDE88-E66B-40C4-BA4E-A08A7E6AB98A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7D0FED3-CB8F-452D-8633-B37AAAB55CFD}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1187,16 +1190,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:A5" xr:uid="{4FF42C00-55A3-4054-A3B9-24C5243BB7E1}"/>
+  <autoFilter ref="A3:A5" xr:uid="{586CC1D8-B062-48C3-AFF6-B7A500BA5275}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{CA950EC9-544E-43EA-950E-9DDAE688859D}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{53ED21C7-7827-4671-A0A0-5DB6E71973CB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59E1A2EC-3044-4373-9724-B1959F2D532D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB95A66F-AD52-4B2B-8487-8C48EF7C66F8}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1247,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -1264,26 +1267,26 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
       <c r="E5">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E5" xr:uid="{ADAC2A52-157A-42E2-A0F5-43401BBD3137}"/>
+  <autoFilter ref="A3:E5" xr:uid="{76A37FF4-33E9-4FB5-B57D-BF1D1FAFD7A3}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{72EECC8E-B3AB-4105-AFCC-E7FC0579B49D}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{51A6C545-1A2C-4F2F-BBF3-7AA8E06B265E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C115CBB-B153-48E5-8A63-388E83FBD21D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C2DEFB2-7439-4704-9192-99B4F1278764}">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1297,29 +1300,29 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B3">
         <v>2000</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -1334,18 +1337,18 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
       </c>
       <c r="C6">
-        <v>330000</v>
+        <v>300000</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
@@ -1354,12 +1357,12 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -1374,12 +1377,12 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1394,12 +1397,12 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B10">
         <v>2000</v>
@@ -1411,22 +1414,248 @@
         <v>9</v>
       </c>
       <c r="E10">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="F10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{F4FDD8CA-37C1-4FA4-9EF3-3FD94048D2D3}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{18E5653D-604D-4942-9EC9-29972999BE2E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6AAE05-9840-4723-BCA0-81663BDB862E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D419D5EE-6ACE-4641-A2BC-2E5BE60455CF}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="3" width="15.578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>90000</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:B4" xr:uid="{4D8C2094-EDA4-42F3-9805-279A10DA1C5C}"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{2131AD4C-BEDD-4DC0-AC2E-39783178FAB1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB63C471-34EA-4C1F-BC0B-1E9C06A44EE3}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="5" width="15.578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:E5" xr:uid="{3246297D-B469-4590-9DCE-55E60738629B}"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{6B539EEC-AC82-427D-9932-80F0DC3EA404}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{186161C5-A278-4466-9184-175EC56E1A16}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="5" width="15.578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:E5" xr:uid="{DEAA033A-D7FD-4E96-B3AA-D7F35ED5BE9C}"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{C9CA8D5F-B671-424C-A2BA-E1306E22EB63}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC2C2E0-DA72-464F-B7DC-31EA01A23AB7}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1443,13 +1672,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1465,7 +1694,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>90000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1473,20 +1702,20 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>35000</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B5" xr:uid="{7F0D7F7F-6E81-4445-8BB7-F6A38F2FBFAF}"/>
+  <autoFilter ref="A3:B5" xr:uid="{F2A29F78-8BC3-4491-B28F-F47CBE170480}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{F813AE14-0AE3-4245-B267-1046CD64D263}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{9FC8B45D-C86F-4714-8F6D-D8271D861AFA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11E515A1-5CDA-4741-8838-521D63F87684}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF850A11-3BE2-4CD9-9D20-39145FCB52E3}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1503,13 +1732,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1533,47 +1762,47 @@
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
-        <v>0</v>
+      <c r="B4" t="s">
+        <v>27</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>90000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5">
-        <v>0</v>
+      <c r="B5" t="s">
+        <v>27</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>35000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E5" xr:uid="{B320D9DA-5E32-4E23-A2B9-E68100C3D263}"/>
+  <autoFilter ref="A3:E5" xr:uid="{8B6803BB-2F76-4BA5-8376-7C794961111E}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{1FB5A016-F388-49EC-A123-5D50996656FF}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{B4A59778-195D-4AAC-99FE-E4FF5C293D67}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAC1931E-A6A4-4FE2-A8AF-055098600F29}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{619E750F-69E3-4C69-8F43-8703C212E8F8}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1590,13 +1819,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1620,47 +1849,47 @@
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
-        <v>0</v>
+      <c r="B4" t="s">
+        <v>27</v>
       </c>
       <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5">
-        <v>0</v>
+      <c r="B5" t="s">
+        <v>27</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
+        <v>-9999.9999999999982</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E5" xr:uid="{F8392E4C-1EDD-41EF-91BC-0CE096F32F0A}"/>
+  <autoFilter ref="A3:E5" xr:uid="{A2F6E7DE-5AAC-405B-83D2-22A3C6659A3E}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{1978FB00-8272-41E7-8EE7-B9E935BC7FA5}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{0DFFCEB5-28D2-43AD-8499-3A683C37B425}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE8C4748-A774-4B00-B1D5-996E8ECEFC00}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95290DF8-1114-4988-BE84-BA7F1F974C84}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1677,13 +1906,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1699,7 +1928,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1707,247 +1936,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>12000</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B5" xr:uid="{7A711893-81E9-4C25-9F6E-002D0551489D}"/>
+  <autoFilter ref="A3:B5" xr:uid="{3B1CC451-DFB0-446C-BEA5-ADA451AE7A0A}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{83F63363-DB4A-4F65-AB08-8E601B5DF9C3}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDAC627E-C15A-434D-9EAC-57E8642BAC93}">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="5" width="15.578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A3:E5" xr:uid="{C61A0B00-D627-4D61-B87A-A3796CB73ADB}"/>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{A20F283E-56F8-45B7-B5C7-347AC3013FCD}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{063E161A-07F3-4876-AF86-AB5D362C0693}">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="5" width="15.578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A3:E5" xr:uid="{E04FF817-E981-4591-B984-D4DE8A747F63}"/>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{71225D05-ECB1-4982-B0AE-6FA1C7EC56AC}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABDA3171-5546-47C7-B25C-FA1614E26998}">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="3" width="15.578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>12000</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A3:B5" xr:uid="{5B05D6A3-57DA-482E-B10B-9E08AE7F8F8B}"/>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{54D84915-B93F-46A2-97ED-2897EB5F0CBA}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{92FEE6F2-F13C-4D42-BFCE-C89BC71DA266}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
